--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Final_Parameters/Cressanda Solution Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Final_Parameters/Cressanda Solution Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>Balance Sheet of Cressanda Solution(in Rs. Cr.)</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -3747,13 +3750,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3814,10 +3817,13 @@
       <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0.01</v>
@@ -3837,22 +3843,22 @@
       <c r="K2">
         <v>-0.01</v>
       </c>
-      <c r="L2">
-        <v>-0.01</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>-0.01</v>
       </c>
       <c r="O2">
         <v>-0.01</v>
       </c>
       <c r="P2">
+        <v>-0.01</v>
+      </c>
+      <c r="Q2">
         <v>30.36</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -3878,25 +3884,25 @@
       <c r="K3">
         <v>0.04</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.04</v>
       </c>
-      <c r="M3">
-        <v>0.01</v>
-      </c>
       <c r="N3">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O3">
         <v>0.03</v>
       </c>
       <c r="P3">
+        <v>0.03</v>
+      </c>
+      <c r="Q3">
         <v>30.36</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3916,22 +3922,22 @@
       <c r="K4">
         <v>-0.09</v>
       </c>
-      <c r="L4">
-        <v>-0.09</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>-0.09</v>
       </c>
       <c r="O4">
         <v>-0.09</v>
       </c>
       <c r="P4">
+        <v>-0.09</v>
+      </c>
+      <c r="Q4">
         <v>30.36</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>0.01</v>
@@ -3951,22 +3957,22 @@
       <c r="K5">
         <v>-0.03</v>
       </c>
-      <c r="L5">
-        <v>-0.03</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>-0.03</v>
       </c>
       <c r="O5">
         <v>-0.03</v>
       </c>
       <c r="P5">
+        <v>-0.03</v>
+      </c>
+      <c r="Q5">
         <v>30.36</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>0.03</v>
@@ -3986,23 +3992,20 @@
       <c r="K6">
         <v>-0.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-0.2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-0.06</v>
-      </c>
-      <c r="N6">
-        <v>-0.14</v>
       </c>
       <c r="O6">
         <v>-0.14</v>
       </c>
       <c r="P6">
+        <v>-0.14</v>
+      </c>
+      <c r="Q6">
         <v>30.36</v>
-      </c>
-      <c r="Q6">
-        <v>-0.04</v>
       </c>
       <c r="R6">
         <v>-0.04</v>
@@ -4013,10 +4016,13 @@
       <c r="T6">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>0.01</v>
@@ -4039,22 +4045,22 @@
       <c r="K7">
         <v>0.05</v>
       </c>
-      <c r="L7">
-        <v>0.05</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>0.05</v>
       </c>
       <c r="O7">
         <v>0.05</v>
       </c>
       <c r="P7">
+        <v>0.05</v>
+      </c>
+      <c r="Q7">
         <v>30.36</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>0.01</v>
@@ -4077,22 +4083,22 @@
       <c r="K8">
         <v>-0.02</v>
       </c>
-      <c r="L8">
-        <v>-0.02</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>-0.02</v>
       </c>
       <c r="O8">
         <v>-0.02</v>
       </c>
       <c r="P8">
+        <v>-0.02</v>
+      </c>
+      <c r="Q8">
         <v>30.36</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0.01</v>
@@ -4115,22 +4121,22 @@
       <c r="K9">
         <v>0.13</v>
       </c>
-      <c r="L9">
-        <v>0.13</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>0.13</v>
       </c>
       <c r="O9">
         <v>0.13</v>
       </c>
       <c r="P9">
+        <v>0.13</v>
+      </c>
+      <c r="Q9">
         <v>30.36</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>0.01</v>
@@ -4150,22 +4156,22 @@
       <c r="K10">
         <v>-0.04</v>
       </c>
-      <c r="L10">
-        <v>-0.04</v>
-      </c>
-      <c r="N10">
+      <c r="M10">
         <v>-0.04</v>
       </c>
       <c r="O10">
         <v>-0.04</v>
       </c>
       <c r="P10">
+        <v>-0.04</v>
+      </c>
+      <c r="Q10">
         <v>30.36</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>0.01</v>
@@ -4188,22 +4194,22 @@
       <c r="K11">
         <v>-0.04</v>
       </c>
-      <c r="L11">
-        <v>-0.04</v>
-      </c>
-      <c r="N11">
+      <c r="M11">
         <v>-0.04</v>
       </c>
       <c r="O11">
         <v>-0.04</v>
       </c>
       <c r="P11">
+        <v>-0.04</v>
+      </c>
+      <c r="Q11">
         <v>30.36</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -4223,22 +4229,22 @@
       <c r="K12">
         <v>-0.02</v>
       </c>
-      <c r="L12">
-        <v>-0.02</v>
-      </c>
-      <c r="N12">
+      <c r="M12">
         <v>-0.02</v>
       </c>
       <c r="O12">
         <v>-0.02</v>
       </c>
       <c r="P12">
+        <v>-0.02</v>
+      </c>
+      <c r="Q12">
         <v>30.36</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0.01</v>
@@ -4261,21 +4267,18 @@
       <c r="K13">
         <v>0.03</v>
       </c>
-      <c r="L13">
-        <v>0.03</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>0.03</v>
       </c>
       <c r="O13">
         <v>0.03</v>
       </c>
       <c r="P13">
+        <v>0.03</v>
+      </c>
+      <c r="Q13">
         <v>30.36</v>
       </c>
-      <c r="Q13">
-        <v>0.01</v>
-      </c>
       <c r="R13">
         <v>0.01</v>
       </c>
@@ -4285,10 +4288,13 @@
       <c r="T13">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>0.01</v>
@@ -4311,22 +4317,22 @@
       <c r="K14">
         <v>-0.03</v>
       </c>
-      <c r="L14">
-        <v>-0.03</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>-0.03</v>
       </c>
       <c r="O14">
         <v>-0.03</v>
       </c>
       <c r="P14">
+        <v>-0.03</v>
+      </c>
+      <c r="Q14">
         <v>30.36</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>0.02</v>
@@ -4346,23 +4352,20 @@
       <c r="K15">
         <v>-0.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-0.1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.1</v>
-      </c>
-      <c r="N15">
-        <v>-0.2</v>
       </c>
       <c r="O15">
         <v>-0.2</v>
       </c>
       <c r="P15">
+        <v>-0.2</v>
+      </c>
+      <c r="Q15">
         <v>30.36</v>
-      </c>
-      <c r="Q15">
-        <v>-0.01</v>
       </c>
       <c r="R15">
         <v>-0.01</v>
@@ -4373,10 +4376,13 @@
       <c r="T15">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>0.01</v>
@@ -4396,20 +4402,17 @@
       <c r="K16">
         <v>-4.91</v>
       </c>
-      <c r="L16">
-        <v>-4.91</v>
-      </c>
-      <c r="N16">
+      <c r="M16">
         <v>-4.91</v>
       </c>
       <c r="O16">
         <v>-4.91</v>
       </c>
       <c r="P16">
+        <v>-4.91</v>
+      </c>
+      <c r="Q16">
         <v>30.36</v>
-      </c>
-      <c r="Q16">
-        <v>-0.16</v>
       </c>
       <c r="R16">
         <v>-0.16</v>
@@ -4420,10 +4423,13 @@
       <c r="T16">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>0.01</v>
@@ -4443,22 +4449,22 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>30.36</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <v>0.01</v>
@@ -4475,22 +4481,22 @@
       <c r="K18">
         <v>-0.03</v>
       </c>
-      <c r="L18">
-        <v>-0.03</v>
-      </c>
-      <c r="N18">
+      <c r="M18">
         <v>-0.03</v>
       </c>
       <c r="O18">
         <v>-0.03</v>
       </c>
       <c r="P18">
+        <v>-0.03</v>
+      </c>
+      <c r="Q18">
         <v>30.36</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>0.01</v>
@@ -4510,22 +4516,22 @@
       <c r="K19">
         <v>-0.02</v>
       </c>
-      <c r="L19">
-        <v>-0.02</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
         <v>-0.02</v>
       </c>
       <c r="O19">
         <v>-0.02</v>
       </c>
       <c r="P19">
+        <v>-0.02</v>
+      </c>
+      <c r="Q19">
         <v>30.36</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4542,22 +4548,22 @@
       <c r="K20">
         <v>-0.01</v>
       </c>
-      <c r="L20">
-        <v>-0.01</v>
-      </c>
-      <c r="N20">
+      <c r="M20">
         <v>-0.01</v>
       </c>
       <c r="O20">
         <v>-0.01</v>
       </c>
       <c r="P20">
+        <v>-0.01</v>
+      </c>
+      <c r="Q20">
         <v>30.36</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21">
         <v>0.01</v>
@@ -4577,22 +4583,22 @@
       <c r="K21">
         <v>0.05</v>
       </c>
-      <c r="L21">
-        <v>0.05</v>
-      </c>
-      <c r="N21">
+      <c r="M21">
         <v>0.05</v>
       </c>
       <c r="O21">
         <v>0.05</v>
       </c>
       <c r="P21">
+        <v>0.05</v>
+      </c>
+      <c r="Q21">
         <v>30.36</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4609,22 +4615,22 @@
       <c r="K22">
         <v>-0.01</v>
       </c>
-      <c r="L22">
-        <v>-0.01</v>
-      </c>
-      <c r="N22">
+      <c r="M22">
         <v>-0.01</v>
       </c>
       <c r="O22">
         <v>-0.01</v>
       </c>
       <c r="P22">
+        <v>-0.01</v>
+      </c>
+      <c r="Q22">
         <v>30.36</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4641,22 +4647,22 @@
       <c r="K23">
         <v>-0.01</v>
       </c>
-      <c r="L23">
-        <v>-0.01</v>
-      </c>
-      <c r="N23">
+      <c r="M23">
         <v>-0.01</v>
       </c>
       <c r="O23">
         <v>-0.01</v>
       </c>
       <c r="P23">
+        <v>-0.01</v>
+      </c>
+      <c r="Q23">
         <v>30.36</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24">
         <v>0.01</v>
@@ -4673,22 +4679,22 @@
       <c r="K24">
         <v>-0.04</v>
       </c>
-      <c r="L24">
-        <v>-0.04</v>
-      </c>
-      <c r="N24">
+      <c r="M24">
         <v>-0.04</v>
       </c>
       <c r="O24">
         <v>-0.04</v>
       </c>
       <c r="P24">
+        <v>-0.04</v>
+      </c>
+      <c r="Q24">
         <v>30.36</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4705,22 +4711,22 @@
       <c r="K25">
         <v>-0.01</v>
       </c>
-      <c r="L25">
-        <v>-0.01</v>
-      </c>
-      <c r="N25">
+      <c r="M25">
         <v>-0.01</v>
       </c>
       <c r="O25">
         <v>-0.01</v>
       </c>
       <c r="P25">
+        <v>-0.01</v>
+      </c>
+      <c r="Q25">
         <v>30.36</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4737,22 +4743,22 @@
       <c r="K26">
         <v>-0.06</v>
       </c>
-      <c r="L26">
-        <v>-0.06</v>
-      </c>
-      <c r="N26">
+      <c r="M26">
         <v>-0.06</v>
       </c>
       <c r="O26">
         <v>-0.06</v>
       </c>
       <c r="P26">
+        <v>-0.06</v>
+      </c>
+      <c r="Q26">
         <v>30.36</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4769,22 +4775,22 @@
       <c r="K27">
         <v>-0.02</v>
       </c>
-      <c r="L27">
-        <v>-0.02</v>
-      </c>
-      <c r="N27">
+      <c r="M27">
         <v>-0.02</v>
       </c>
       <c r="O27">
         <v>-0.02</v>
       </c>
       <c r="P27">
+        <v>-0.02</v>
+      </c>
+      <c r="Q27">
         <v>30.36</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>0.04</v>
@@ -4807,28 +4813,28 @@
       <c r="K28">
         <v>-0.01</v>
       </c>
-      <c r="L28">
-        <v>-0.01</v>
-      </c>
-      <c r="N28">
+      <c r="M28">
         <v>-0.01</v>
       </c>
       <c r="O28">
         <v>-0.01</v>
       </c>
       <c r="P28">
+        <v>-0.01</v>
+      </c>
+      <c r="Q28">
         <v>30.36</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>0.01</v>
@@ -4851,22 +4857,22 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="M29">
         <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>30.36</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4889,22 +4895,22 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="M30">
         <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>30.36</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4921,28 +4927,28 @@
       <c r="K31">
         <v>-0.02</v>
       </c>
-      <c r="L31">
-        <v>-0.02</v>
-      </c>
-      <c r="N31">
+      <c r="M31">
         <v>-0.02</v>
       </c>
       <c r="O31">
         <v>-0.02</v>
       </c>
       <c r="P31">
+        <v>-0.02</v>
+      </c>
+      <c r="Q31">
         <v>30.36</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>0.07000000000000001</v>
@@ -4965,28 +4971,28 @@
       <c r="K32">
         <v>0.05</v>
       </c>
-      <c r="L32">
-        <v>0.05</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
         <v>0.05</v>
       </c>
       <c r="O32">
         <v>0.05</v>
       </c>
       <c r="P32">
+        <v>0.05</v>
+      </c>
+      <c r="Q32">
         <v>30.36</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -5009,28 +5015,28 @@
       <c r="K33">
         <v>-0.04</v>
       </c>
-      <c r="L33">
-        <v>-0.04</v>
-      </c>
-      <c r="N33">
+      <c r="M33">
         <v>-0.04</v>
       </c>
       <c r="O33">
         <v>-0.04</v>
       </c>
       <c r="P33">
+        <v>-0.04</v>
+      </c>
+      <c r="Q33">
         <v>30.36</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>0.02</v>
@@ -5053,28 +5059,28 @@
       <c r="K34">
         <v>0.05</v>
       </c>
-      <c r="L34">
-        <v>0.05</v>
-      </c>
-      <c r="N34">
+      <c r="M34">
         <v>0.05</v>
       </c>
       <c r="O34">
         <v>0.05</v>
       </c>
       <c r="P34">
+        <v>0.05</v>
+      </c>
+      <c r="Q34">
         <v>30.36</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>0.05</v>
@@ -5097,28 +5103,28 @@
       <c r="K35">
         <v>0.01</v>
       </c>
-      <c r="L35">
-        <v>0.01</v>
-      </c>
-      <c r="N35">
+      <c r="M35">
         <v>0.01</v>
       </c>
       <c r="O35">
         <v>0.01</v>
       </c>
       <c r="P35">
+        <v>0.01</v>
+      </c>
+      <c r="Q35">
         <v>30.36</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>0.04</v>
@@ -5142,20 +5148,20 @@
         <v>-0.06</v>
       </c>
       <c r="L36">
-        <v>0.21</v>
-      </c>
-      <c r="N36">
+        <v>0.27</v>
+      </c>
+      <c r="M36">
         <v>0.21</v>
       </c>
       <c r="O36">
         <v>0.21</v>
       </c>
       <c r="P36">
+        <v>0.21</v>
+      </c>
+      <c r="Q36">
         <v>30.36</v>
       </c>
-      <c r="Q36">
-        <v>0.01</v>
-      </c>
       <c r="R36">
         <v>0.01</v>
       </c>
@@ -5165,10 +5171,13 @@
       <c r="T36">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>23.45</v>
@@ -5197,23 +5206,20 @@
       <c r="K37">
         <v>1.55</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1.55</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.25</v>
-      </c>
-      <c r="N37">
-        <v>1.3</v>
       </c>
       <c r="O37">
         <v>1.3</v>
       </c>
       <c r="P37">
+        <v>1.3</v>
+      </c>
+      <c r="Q37">
         <v>39.85</v>
-      </c>
-      <c r="Q37">
-        <v>0.03</v>
       </c>
       <c r="R37">
         <v>0.03</v>
@@ -5224,10 +5230,13 @@
       <c r="T37">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>20.91</v>
@@ -5257,22 +5266,22 @@
         <v>0.4</v>
       </c>
       <c r="L38">
+        <v>0.8</v>
+      </c>
+      <c r="M38">
         <v>1.2</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="N38">
-        <v>1.27</v>
       </c>
       <c r="O38">
         <v>1.27</v>
       </c>
       <c r="P38">
+        <v>1.27</v>
+      </c>
+      <c r="Q38">
         <v>39.85</v>
-      </c>
-      <c r="Q38">
-        <v>0.03</v>
       </c>
       <c r="R38">
         <v>0.03</v>
@@ -5283,10 +5292,13 @@
       <c r="T38">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <v>18.39</v>
@@ -5316,22 +5328,22 @@
         <v>0.26</v>
       </c>
       <c r="L39">
+        <v>0.53</v>
+      </c>
+      <c r="M39">
         <v>0.79</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="N39">
-        <v>0.72</v>
       </c>
       <c r="O39">
         <v>0.72</v>
       </c>
       <c r="P39">
+        <v>0.72</v>
+      </c>
+      <c r="Q39">
         <v>39.85</v>
-      </c>
-      <c r="Q39">
-        <v>0.02</v>
       </c>
       <c r="R39">
         <v>0.02</v>
@@ -5342,10 +5354,13 @@
       <c r="T39">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>12.38</v>
@@ -5375,20 +5390,20 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="L40">
-        <v>0.55</v>
-      </c>
-      <c r="N40">
+        <v>1.24</v>
+      </c>
+      <c r="M40">
         <v>0.55</v>
       </c>
       <c r="O40">
         <v>0.55</v>
       </c>
       <c r="P40">
+        <v>0.55</v>
+      </c>
+      <c r="Q40">
         <v>39.85</v>
       </c>
-      <c r="Q40">
-        <v>0.01</v>
-      </c>
       <c r="R40">
         <v>0.01</v>
       </c>
@@ -5398,10 +5413,13 @@
       <c r="T40">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>12.38</v>
@@ -5430,23 +5448,20 @@
       <c r="K41">
         <v>3.59</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>3.59</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>1.52</v>
-      </c>
-      <c r="N41">
-        <v>2.07</v>
       </c>
       <c r="O41">
         <v>2.07</v>
       </c>
       <c r="P41">
+        <v>2.07</v>
+      </c>
+      <c r="Q41">
         <v>39.85</v>
-      </c>
-      <c r="Q41">
-        <v>0.05</v>
       </c>
       <c r="R41">
         <v>0.05</v>
@@ -5457,10 +5472,13 @@
       <c r="T41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>0.07000000000000001</v>
@@ -5489,23 +5507,20 @@
       <c r="K42">
         <v>0.82</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.82</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>-0.32</v>
-      </c>
-      <c r="N42">
-        <v>1.14</v>
       </c>
       <c r="O42">
         <v>1.14</v>
       </c>
       <c r="P42">
+        <v>1.14</v>
+      </c>
+      <c r="Q42">
         <v>41.08</v>
-      </c>
-      <c r="Q42">
-        <v>0.03</v>
       </c>
       <c r="R42">
         <v>0.03</v>
@@ -5516,10 +5531,13 @@
       <c r="T42">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>19.5</v>
@@ -5549,22 +5567,22 @@
         <v>2.89</v>
       </c>
       <c r="L43">
+        <v>2.14</v>
+      </c>
+      <c r="M43">
         <v>5.03</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>-0.08</v>
-      </c>
-      <c r="N43">
-        <v>5.1</v>
       </c>
       <c r="O43">
         <v>5.1</v>
       </c>
       <c r="P43">
+        <v>5.1</v>
+      </c>
+      <c r="Q43">
         <v>41.08</v>
-      </c>
-      <c r="Q43">
-        <v>0.12</v>
       </c>
       <c r="R43">
         <v>0.12</v>
@@ -5575,10 +5593,13 @@
       <c r="T43">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>-1.08</v>
@@ -5607,23 +5628,20 @@
       <c r="K44">
         <v>-5.25</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>-5.25</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>-1.44</v>
-      </c>
-      <c r="N44">
-        <v>-3.81</v>
       </c>
       <c r="O44">
         <v>-3.81</v>
       </c>
       <c r="P44">
+        <v>-3.81</v>
+      </c>
+      <c r="Q44">
         <v>42.27</v>
-      </c>
-      <c r="Q44">
-        <v>-0.09</v>
       </c>
       <c r="R44">
         <v>-0.09</v>
@@ -5634,10 +5652,13 @@
       <c r="T44">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <v>6.04</v>
@@ -5670,22 +5691,22 @@
         <v>1.66</v>
       </c>
       <c r="L45">
+        <v>0.14</v>
+      </c>
+      <c r="M45">
         <v>1.8</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.5</v>
-      </c>
-      <c r="N45">
-        <v>1.3</v>
       </c>
       <c r="O45">
         <v>1.3</v>
       </c>
       <c r="P45">
+        <v>1.3</v>
+      </c>
+      <c r="Q45">
         <v>41.9</v>
-      </c>
-      <c r="Q45">
-        <v>0.03</v>
       </c>
       <c r="R45">
         <v>0.03</v>
@@ -5696,10 +5717,13 @@
       <c r="T45">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>61.5</v>
@@ -5731,23 +5755,20 @@
       <c r="K46">
         <v>3.23</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>3.23</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.57</v>
-      </c>
-      <c r="N46">
-        <v>2.66</v>
       </c>
       <c r="O46">
         <v>2.66</v>
       </c>
       <c r="P46">
+        <v>2.66</v>
+      </c>
+      <c r="Q46">
         <v>41.9</v>
-      </c>
-      <c r="Q46">
-        <v>0.06</v>
       </c>
       <c r="R46">
         <v>0.06</v>
@@ -5756,6 +5777,9 @@
         <v>0.06</v>
       </c>
       <c r="T46">
+        <v>0.06</v>
+      </c>
+      <c r="U46">
         <v>0.06</v>
       </c>
     </row>
@@ -5774,58 +5798,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:18">
